--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>658985.9842997473</v>
+        <v>656325.545554549</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.5938764634841</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
         <v>212.651863114966</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>221.9818015136043</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643709</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
         <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958667</v>
+        <v>45.4458084395873</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>193.7787769293046</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>220.5201434005319</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>183.7702449963616</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -953,16 +953,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>194.6942838042537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>22.5359063634549</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>257.837579730082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>40.7426499720426</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>239.4407034042401</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.2397255529495</v>
+        <v>12.2397255529495</v>
       </c>
       <c r="H8" t="n">
-        <v>308.1057308580345</v>
+        <v>308.1057308580343</v>
       </c>
       <c r="I8" t="n">
-        <v>92.38912089824764</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>139.2216844979422</v>
+        <v>139.221684497942</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>251.1006119508617</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.704661281745</v>
       </c>
       <c r="H9" t="n">
-        <v>96.40754664444715</v>
+        <v>96.40754664444709</v>
       </c>
       <c r="I9" t="n">
-        <v>32.97111237113028</v>
+        <v>32.97111237113008</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2421419020536</v>
+        <v>141.2421419020535</v>
       </c>
       <c r="T9" t="n">
-        <v>193.5589894182125</v>
+        <v>193.5589894182124</v>
       </c>
       <c r="U9" t="n">
         <v>225.8335626150889</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>150.0114037757905</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>20.68263885543625</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.0721924556109</v>
       </c>
       <c r="T10" t="n">
-        <v>222.0750257228878</v>
+        <v>222.0750257228877</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.244085990039</v>
       </c>
       <c r="V10" t="n">
-        <v>198.2515089452351</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>222.6434959374147</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184543</v>
+        <v>24.14662204184569</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615203</v>
+        <v>98.88510599615218</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>125.4662546712046</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.757564313352</v>
+        <v>134.7575643133521</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812553</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530784</v>
+        <v>10.48847705530795</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>118.0940871474012</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992737</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905233</v>
+        <v>79.81330679905246</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.0842389747947</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174123</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>102.1557845699821</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016468</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>6.228861054222167</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936241</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671011685</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>40.96105405076379</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444134</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936237</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012412</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>64.91921363453365</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,10 +2533,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>40.96105405076401</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>136.1078891637044</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833792</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>133.3722917337062</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>45.97180554614035</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471654</v>
       </c>
       <c r="Y34" t="n">
-        <v>91.66636605273504</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>22.44547853568645</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3554,7 +3554,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>193.996253843244</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>171.0609515538979</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4135,16 +4135,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>123.9815576456782</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833876</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1702.583387840662</v>
+        <v>1300.438540478013</v>
       </c>
       <c r="C2" t="n">
-        <v>1333.62087090025</v>
+        <v>1300.438540478013</v>
       </c>
       <c r="D2" t="n">
-        <v>975.3551722934997</v>
+        <v>1300.438540478013</v>
       </c>
       <c r="E2" t="n">
-        <v>794.9573172798794</v>
+        <v>914.6502878797686</v>
       </c>
       <c r="F2" t="n">
-        <v>383.9714124902719</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G2" t="n">
-        <v>370.9240347671034</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H2" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961286</v>
@@ -4334,19 +4334,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L2" t="n">
-        <v>1197.621189819594</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M2" t="n">
-        <v>1384.320602645002</v>
+        <v>1415.85439839796</v>
       </c>
       <c r="N2" t="n">
-        <v>1578.654815536984</v>
+        <v>2000.577785302794</v>
       </c>
       <c r="O2" t="n">
-        <v>1960.554969866448</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P2" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4355,25 +4355,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T2" t="n">
-        <v>2420.246115248354</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U2" t="n">
-        <v>2420.246115248354</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V2" t="n">
-        <v>2089.183227904784</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="W2" t="n">
-        <v>2089.183227904784</v>
+        <v>1911.262422475068</v>
       </c>
       <c r="X2" t="n">
-        <v>2089.183227904784</v>
+        <v>1911.262422475068</v>
       </c>
       <c r="Y2" t="n">
-        <v>2089.183227904784</v>
+        <v>1687.038380542135</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>336.9631520452705</v>
       </c>
       <c r="G3" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044924</v>
       </c>
       <c r="H3" t="n">
-        <v>98.60577654929637</v>
+        <v>98.605776549297</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961286</v>
@@ -4410,13 +4410,13 @@
         <v>52.70091953961286</v>
       </c>
       <c r="K3" t="n">
-        <v>382.1293238454227</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L3" t="n">
-        <v>591.7266525668463</v>
+        <v>599.2575280293017</v>
       </c>
       <c r="M3" t="n">
-        <v>1232.272002033951</v>
+        <v>778.7548643839066</v>
       </c>
       <c r="N3" t="n">
         <v>1430.928743686616</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.8175589519486</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C4" t="n">
-        <v>202.8175589519486</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D4" t="n">
         <v>52.70091953961286</v>
@@ -4510,28 +4510,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R4" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S4" t="n">
-        <v>714.7173549707657</v>
+        <v>856.8994626865288</v>
       </c>
       <c r="T4" t="n">
-        <v>714.7173549707657</v>
+        <v>631.2702659988937</v>
       </c>
       <c r="U4" t="n">
-        <v>425.5651785484454</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="V4" t="n">
-        <v>202.8175589519486</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W4" t="n">
-        <v>202.8175589519486</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="X4" t="n">
-        <v>202.8175589519486</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.8175589519486</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1641.878503426931</v>
+        <v>1167.841935347857</v>
       </c>
       <c r="C5" t="n">
-        <v>1272.915986486519</v>
+        <v>1167.841935347857</v>
       </c>
       <c r="D5" t="n">
-        <v>914.6502878797686</v>
+        <v>1167.841935347857</v>
       </c>
       <c r="E5" t="n">
-        <v>914.6502878797686</v>
+        <v>782.053682749613</v>
       </c>
       <c r="F5" t="n">
-        <v>503.664383090161</v>
+        <v>371.0677779600055</v>
       </c>
       <c r="G5" t="n">
-        <v>490.6170053669925</v>
+        <v>358.020400236837</v>
       </c>
       <c r="H5" t="n">
         <v>172.393890139502</v>
@@ -4568,22 +4568,22 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>477.4022825530416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>1030.215540799241</v>
+        <v>295.8269799488417</v>
       </c>
       <c r="M5" t="n">
-        <v>1216.914953624649</v>
+        <v>927.5447909321535</v>
       </c>
       <c r="N5" t="n">
-        <v>1844.222621684495</v>
+        <v>1554.852458992</v>
       </c>
       <c r="O5" t="n">
-        <v>2014.391647001455</v>
+        <v>2102.013663759078</v>
       </c>
       <c r="P5" t="n">
-        <v>2443.706693340749</v>
+        <v>2531.328710098372</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4601,16 +4601,16 @@
         <v>2225.139236222622</v>
       </c>
       <c r="V5" t="n">
-        <v>2225.139236222622</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W5" t="n">
-        <v>2225.139236222622</v>
+        <v>1541.307693608937</v>
       </c>
       <c r="X5" t="n">
-        <v>2225.139236222622</v>
+        <v>1167.841935347857</v>
       </c>
       <c r="Y5" t="n">
-        <v>2028.478343491053</v>
+        <v>1167.841935347857</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961286</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L6" t="n">
-        <v>886.4908637115414</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M6" t="n">
-        <v>1065.988200066146</v>
+        <v>1278.563523185117</v>
       </c>
       <c r="N6" t="n">
-        <v>1718.162079368855</v>
+        <v>1477.220264837782</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439339</v>
+        <v>2026.656273590505</v>
       </c>
       <c r="P6" t="n">
         <v>2404.332520920175</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C7" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D7" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E7" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F7" t="n">
         <v>52.70091953961286</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>714.7173549707657</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T7" t="n">
-        <v>714.7173549707657</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U7" t="n">
-        <v>714.7173549707657</v>
+        <v>596.8025777824604</v>
       </c>
       <c r="V7" t="n">
-        <v>460.0328667648788</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W7" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="X7" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1480.715432747558</v>
+        <v>752.1902063312319</v>
       </c>
       <c r="C8" t="n">
-        <v>1480.715432747558</v>
+        <v>383.2276893908202</v>
       </c>
       <c r="D8" t="n">
-        <v>1122.449734140808</v>
+        <v>383.2276893908202</v>
       </c>
       <c r="E8" t="n">
-        <v>880.5904377728887</v>
+        <v>383.2276893908202</v>
       </c>
       <c r="F8" t="n">
-        <v>873.6449370236852</v>
+        <v>376.2821886416168</v>
       </c>
       <c r="G8" t="n">
-        <v>457.2411738388877</v>
+        <v>363.9188294972233</v>
       </c>
       <c r="H8" t="n">
-        <v>146.0232638812772</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J8" t="n">
-        <v>130.8350924684835</v>
+        <v>130.8350924684844</v>
       </c>
       <c r="K8" t="n">
-        <v>298.6764817399637</v>
+        <v>619.5804401854191</v>
       </c>
       <c r="L8" t="n">
-        <v>950.8503610426728</v>
+        <v>864.704286985503</v>
       </c>
       <c r="M8" t="n">
-        <v>1354.395432149624</v>
+        <v>1471.140044674033</v>
       </c>
       <c r="N8" t="n">
-        <v>1668.351972312244</v>
+        <v>1785.096584836656</v>
       </c>
       <c r="O8" t="n">
-        <v>2320.525851614953</v>
+        <v>2068.221581705441</v>
       </c>
       <c r="P8" t="n">
-        <v>2527.665485255198</v>
+        <v>2275.361215345687</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.045976980643</v>
+        <v>2592.933547824439</v>
       </c>
       <c r="R8" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2494.418012841307</v>
+        <v>2494.418012841308</v>
       </c>
       <c r="T8" t="n">
-        <v>2494.418012841307</v>
+        <v>2494.418012841308</v>
       </c>
       <c r="U8" t="n">
         <v>2240.78103107276</v>
       </c>
       <c r="V8" t="n">
-        <v>2240.78103107276</v>
+        <v>1909.71814372919</v>
       </c>
       <c r="W8" t="n">
-        <v>2240.78103107276</v>
+        <v>1556.949488459076</v>
       </c>
       <c r="X8" t="n">
-        <v>1867.31527281168</v>
+        <v>1183.483730197996</v>
       </c>
       <c r="Y8" t="n">
-        <v>1867.31527281168</v>
+        <v>793.3443982221841</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>949.6213010538166</v>
+        <v>949.6213010538164</v>
       </c>
       <c r="C9" t="n">
-        <v>775.1682717726896</v>
+        <v>775.1682717726894</v>
       </c>
       <c r="D9" t="n">
-        <v>626.2338621114384</v>
+        <v>626.2338621114382</v>
       </c>
       <c r="E9" t="n">
-        <v>466.9964071059829</v>
+        <v>466.9964071059826</v>
       </c>
       <c r="F9" t="n">
-        <v>320.4618491328679</v>
+        <v>320.4618491328676</v>
       </c>
       <c r="G9" t="n">
-        <v>183.3864336967618</v>
+        <v>183.3864336967615</v>
       </c>
       <c r="H9" t="n">
-        <v>86.00507344984547</v>
+        <v>86.00507344984527</v>
       </c>
       <c r="I9" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J9" t="n">
-        <v>80.41925070638439</v>
+        <v>80.41925070638493</v>
       </c>
       <c r="K9" t="n">
-        <v>205.9491183061535</v>
+        <v>205.949118306155</v>
       </c>
       <c r="L9" t="n">
-        <v>788.1939996474623</v>
+        <v>788.1939996474651</v>
       </c>
       <c r="M9" t="n">
-        <v>1058.57752198372</v>
+        <v>1440.367878950174</v>
       </c>
       <c r="N9" t="n">
-        <v>1575.314940870921</v>
+        <v>1732.316293487141</v>
       </c>
       <c r="O9" t="n">
-        <v>1820.17090822112</v>
+        <v>2343.425564033146</v>
       </c>
       <c r="P9" t="n">
-        <v>2312.634483613316</v>
+        <v>2520.610998471805</v>
       </c>
       <c r="Q9" t="n">
         <v>2589.135572646088</v>
@@ -4914,7 +4914,7 @@
         <v>2250.952611716526</v>
       </c>
       <c r="U9" t="n">
-        <v>2022.837902004316</v>
+        <v>2022.837902004315</v>
       </c>
       <c r="V9" t="n">
         <v>1787.685793772573</v>
@@ -4926,7 +4926,7 @@
         <v>1325.596936838838</v>
       </c>
       <c r="Y9" t="n">
-        <v>1117.836638073885</v>
+        <v>1117.836638073884</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>499.0306311005128</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C10" t="n">
-        <v>499.0306311005128</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D10" t="n">
-        <v>499.0306311005128</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E10" t="n">
-        <v>351.1175375181197</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F10" t="n">
-        <v>204.2275900202093</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G10" t="n">
-        <v>204.2275900202093</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H10" t="n">
         <v>52.70091953961286</v>
@@ -4960,52 +4960,52 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J10" t="n">
-        <v>56.44303377193356</v>
+        <v>56.4430337719339</v>
       </c>
       <c r="K10" t="n">
-        <v>192.4293137012936</v>
+        <v>192.4293137012946</v>
       </c>
       <c r="L10" t="n">
-        <v>421.9713681763023</v>
+        <v>421.971368176304</v>
       </c>
       <c r="M10" t="n">
-        <v>674.3804035438076</v>
+        <v>674.38040354381</v>
       </c>
       <c r="N10" t="n">
-        <v>926.2223326340604</v>
+        <v>926.2223326340636</v>
       </c>
       <c r="O10" t="n">
-        <v>1142.822820431826</v>
+        <v>1142.82282043183</v>
       </c>
       <c r="P10" t="n">
-        <v>1304.64127440448</v>
+        <v>1304.641274404485</v>
       </c>
       <c r="Q10" t="n">
-        <v>1333.240904069298</v>
+        <v>1333.240904069303</v>
       </c>
       <c r="R10" t="n">
-        <v>1333.240904069298</v>
+        <v>1312.349349669872</v>
       </c>
       <c r="S10" t="n">
-        <v>1333.240904069298</v>
+        <v>1110.256225977336</v>
       </c>
       <c r="T10" t="n">
-        <v>1108.922696268401</v>
+        <v>885.9380181764393</v>
       </c>
       <c r="U10" t="n">
-        <v>1108.922696268401</v>
+        <v>596.8025777824604</v>
       </c>
       <c r="V10" t="n">
-        <v>908.6686468287699</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W10" t="n">
-        <v>908.6686468287699</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="X10" t="n">
-        <v>680.6790959307525</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y10" t="n">
-        <v>680.6790959307525</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.452899754456</v>
+        <v>1485.490329133568</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814044</v>
+        <v>1485.490329133568</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>1127.224630526818</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>741.4363779285736</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194422</v>
+        <v>741.4363779285735</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605877</v>
+        <v>326.8206133697188</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592081</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706885</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>695.1615405656944</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625328</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087833</v>
+        <v>1828.956123087828</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484046</v>
+        <v>2455.60089048404</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.9885135353</v>
+        <v>3033.988513535293</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479999</v>
+        <v>3493.127967479991</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464065</v>
+        <v>3789.749829464057</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.88329579604</v>
+        <v>3876.883295796032</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345382</v>
+        <v>3776.999350345373</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926746</v>
+        <v>3573.020743926738</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.020743926746</v>
+        <v>3319.526802048266</v>
       </c>
       <c r="V11" t="n">
-        <v>3446.287153349772</v>
+        <v>2988.463914704696</v>
       </c>
       <c r="W11" t="n">
-        <v>3093.518498079658</v>
+        <v>2635.695259434581</v>
       </c>
       <c r="X11" t="n">
-        <v>2720.052739818578</v>
+        <v>2262.229501173501</v>
       </c>
       <c r="Y11" t="n">
-        <v>2720.052739818578</v>
+        <v>1872.09016919769</v>
       </c>
     </row>
     <row r="12">
@@ -5109,37 +5109,37 @@
         <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.13208718390847</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592081</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592081</v>
+        <v>193.841091987041</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335454</v>
+        <v>470.7769964046651</v>
       </c>
       <c r="L12" t="n">
-        <v>773.1706109914974</v>
+        <v>488.5008422034086</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749521</v>
+        <v>996.4574081599366</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450732</v>
+        <v>1532.266717861146</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2000.207762193669</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>775.3997193424012</v>
+        <v>365.760805558374</v>
       </c>
       <c r="C13" t="n">
-        <v>775.3997193424012</v>
+        <v>196.8246226304672</v>
       </c>
       <c r="D13" t="n">
-        <v>775.3997193424012</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="E13" t="n">
-        <v>627.4866257600081</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="F13" t="n">
-        <v>480.5966782620977</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="G13" t="n">
-        <v>313.098695073286</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592081</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="J13" t="n">
-        <v>136.855221875865</v>
+        <v>136.8552218758647</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648148</v>
+        <v>364.1690246648142</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344819</v>
+        <v>710.5788654344806</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376941</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336949</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818666</v>
+        <v>1786.049800818663</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010724</v>
+        <v>2042.940349010721</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.36296874281</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925585</v>
+        <v>2056.743466925582</v>
       </c>
       <c r="S13" t="n">
-        <v>2056.743466925585</v>
+        <v>1868.627619458878</v>
       </c>
       <c r="T13" t="n">
-        <v>2056.743466925585</v>
+        <v>1647.736286893318</v>
       </c>
       <c r="U13" t="n">
-        <v>1767.651773875036</v>
+        <v>1358.644593842769</v>
       </c>
       <c r="V13" t="n">
-        <v>1512.967285669149</v>
+        <v>1103.960105636882</v>
       </c>
       <c r="W13" t="n">
-        <v>1223.550115632189</v>
+        <v>814.5429355999215</v>
       </c>
       <c r="X13" t="n">
-        <v>996.1922984859314</v>
+        <v>586.5533847019042</v>
       </c>
       <c r="Y13" t="n">
-        <v>775.3997193424012</v>
+        <v>365.760805558374</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5309,10 +5309,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.079034721979</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5440,46 +5440,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487565</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831763</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625876</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5592,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793925</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400762</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835334</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711976</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888045</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138461</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703159</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057246</v>
+        <v>513.8536007400756</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121688</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121688</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T22" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U22" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V22" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703154</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,16 +6063,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,22 +6145,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684978</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.28814409505</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>1815.886107649656</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O27" t="n">
-        <v>2367.795837888943</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
-        <v>2367.795837888943</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>558.0193492433381</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,13 +6382,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,13 +6397,13 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138423</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703122</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>94.56320294380259</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>244.2098454714573</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714573</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>915.1035305473704</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>746.1673476194635</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>596.0507082071277</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,10 +6619,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6640,31 +6640,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625879</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.896109690901</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473704</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="32">
@@ -6713,13 +6713,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273905</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684978</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784059</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504991</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381633</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557702</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6862,46 +6862,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
@@ -6959,25 +6959,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273906</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.560501433898</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1872.470231673185</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>198.0274703142541</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7193,13 +7193,13 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7342,7 +7342,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
         <v>2035.089393279803</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1394.184733704552</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192616</v>
@@ -7418,40 +7418,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>119.2902967703784</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L42" t="n">
-        <v>119.2902967703784</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>697.5276345711977</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>697.5276345711977</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711977</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888046</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908942</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.958229442985</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.968678544968</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>879.1760994014375</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7625,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7667,16 +7667,16 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7685,10 +7685,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>409.1360811687895</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>904.4616873845483</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1501.8401750111</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
         <v>2129.438138565707</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400716</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038339</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
   </sheetData>
@@ -7982,22 +7982,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>394.3324990028808</v>
       </c>
       <c r="O2" t="n">
-        <v>213.8698272853578</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8058,16 +8058,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>73.09871788457534</v>
+        <v>345.1708998087252</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8216,25 +8216,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>157.9345087053523</v>
+        <v>69.4274210713897</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,25 +8292,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384287</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>103.7276367694168</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>271.703656366032</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,28 +8453,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>411.1616489925524</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>100.1294179685748</v>
+        <v>305.0695054247141</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>372.7766489231576</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>23.17861264449434</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>385.646825218636</v>
       </c>
       <c r="N9" t="n">
-        <v>227.0596003537727</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>369.9528315109129</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>43.92668002524907</v>
+        <v>43.92668002524871</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-6.702866666536306e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-8.976603420968626e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10118,13 +10118,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>-1.093502476537661e-13</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>67.33400740196002</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>202.2860037989303</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>30.52138587081113</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927379</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.6254164142424656</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.13892827624173</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.2941372823688</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>43.26526345294504</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>211.1765892730642</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.26526345294548</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>152.4862366927546</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823068</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>245.561944285827</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.72409101823295</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>45.44677382459331</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>46.45968844823113</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>100.4621571004288</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.73700564187175</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.9182872993597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864948</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>264.0775198009046</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.4467738245925</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.58839950885078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409392995</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>115.4620467826931</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,16 +26023,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>24.63391537253418</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>45.44677382459248</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>921835.9949931193</v>
+        <v>921835.9949931183</v>
       </c>
     </row>
     <row r="6">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321418</v>
+        <v>410520.8849321419</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321419</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321417</v>
       </c>
       <c r="E2" t="n">
-        <v>366294.6221371983</v>
+        <v>366294.6221371978</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="G2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="H2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="I2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="J2" t="n">
         <v>403573.2998450031</v>
@@ -26341,19 +26341,19 @@
         <v>403573.2998450031</v>
       </c>
       <c r="L2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="M2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="N2" t="n">
         <v>403573.2998450029</v>
       </c>
-      <c r="M2" t="n">
-        <v>403573.2998450029</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="O2" t="n">
-        <v>403573.2998450028</v>
-      </c>
       <c r="P2" t="n">
-        <v>403573.2998450028</v>
+        <v>403573.2998450031</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>144261.3327426404</v>
+        <v>144261.3327426427</v>
       </c>
       <c r="E3" t="n">
-        <v>446448.3338319006</v>
+        <v>446448.3338318966</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704279</v>
+        <v>189308.2687704299</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>172360.9924002808</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.986263497798068e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>77367.70679951813</v>
+        <v>77367.70679951756</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202338</v>
+        <v>49839.57413202388</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>160336.9200875368</v>
+        <v>160336.9200875363</v>
       </c>
       <c r="E4" t="n">
-        <v>6792.005937060821</v>
+        <v>6792.00593706082</v>
       </c>
       <c r="F4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707435</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707426</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707363</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="G4" t="n">
-        <v>6897.42449670737</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707343</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707335</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707332</v>
-      </c>
       <c r="K4" t="n">
-        <v>6897.424496707323</v>
+        <v>6897.424496707375</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707334</v>
+        <v>6897.42449670735</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707342</v>
+        <v>6897.42449670735</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707303</v>
+        <v>6897.424496707341</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707343</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707337</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>86618.07783747559</v>
       </c>
       <c r="D5" t="n">
-        <v>90290.24696804743</v>
+        <v>90290.24696804749</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738574</v>
+        <v>85137.4850673856</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-658636.4190379377</v>
+        <v>-658636.4190379374</v>
       </c>
       <c r="C6" t="n">
-        <v>134010.9946730473</v>
+        <v>134010.9946730475</v>
       </c>
       <c r="D6" t="n">
-        <v>15632.38513391712</v>
+        <v>15632.3851339152</v>
       </c>
       <c r="E6" t="n">
-        <v>-172083.2026991489</v>
+        <v>-172304.33401312</v>
       </c>
       <c r="F6" t="n">
-        <v>106245.0767539607</v>
+        <v>106210.3388285231</v>
       </c>
       <c r="G6" t="n">
-        <v>295553.3455243885</v>
+        <v>295518.6075989529</v>
       </c>
       <c r="H6" t="n">
-        <v>295553.3455243887</v>
+        <v>295518.6075989529</v>
       </c>
       <c r="I6" t="n">
-        <v>295553.3455243885</v>
+        <v>295518.607598953</v>
       </c>
       <c r="J6" t="n">
-        <v>123192.3531241078</v>
+        <v>123157.6151986721</v>
       </c>
       <c r="K6" t="n">
-        <v>295553.3455243886</v>
+        <v>295518.6075989527</v>
       </c>
       <c r="L6" t="n">
-        <v>295553.3455243885</v>
+        <v>295518.6075989528</v>
       </c>
       <c r="M6" t="n">
-        <v>218185.6387248703</v>
+        <v>218150.9007994354</v>
       </c>
       <c r="N6" t="n">
-        <v>245713.7713923653</v>
+        <v>245679.0334669288</v>
       </c>
       <c r="O6" t="n">
-        <v>295553.3455243884</v>
+        <v>295518.6075989528</v>
       </c>
       <c r="P6" t="n">
-        <v>295553.3455243883</v>
+        <v>295518.6075989529</v>
       </c>
     </row>
   </sheetData>
@@ -26698,10 +26698,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26741,10 +26741,10 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>761.9242255936545</v>
+        <v>761.9242255936572</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26796,7 +26796,7 @@
         <v>658.7614942451607</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490101</v>
+        <v>969.220823949008</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26820,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="P4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>168.4481252555894</v>
+        <v>168.4481252555921</v>
       </c>
       <c r="E3" t="n">
-        <v>440.3170116212968</v>
+        <v>440.3170116212925</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267225</v>
+        <v>165.7342631267243</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,13 +26978,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>310.4593297038493</v>
+        <v>310.4593297038473</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506383</v>
+        <v>203.4874641506403</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.4593297038496</v>
+        <v>310.4593297038473</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506383</v>
+        <v>203.4874641506403</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.4593297038493</v>
+        <v>310.4593297038473</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506383</v>
+        <v>203.4874641506403</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>203.3364936087777</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>164.2561371424493</v>
       </c>
     </row>
     <row r="3">
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>-6.252776074688882e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>11.58710497081401</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>31.61749992329615</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>131.270639078854</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>191.5436548517999</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>263.7247482946421</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>28.68541860650902</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>341.991191691438</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>142.4896666680216</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>92.38912089824721</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.6170176401751</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>150.0114037757904</v>
       </c>
       <c r="I10" t="n">
-        <v>114.1316988901467</v>
+        <v>114.1316988901465</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>115.515076298707</v>
+        <v>94.83243744327049</v>
       </c>
       <c r="S10" t="n">
-        <v>200.072192455611</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.244085990039</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.88613437859289</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.598406912988267e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-2.639142743320249e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>4.832021886775404e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>4.832021886775404e-12</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="30">
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.063011962185543</v>
+        <v>3.063011962185554</v>
       </c>
       <c r="H8" t="n">
-        <v>31.3690712577327</v>
+        <v>31.36907125773282</v>
       </c>
       <c r="I8" t="n">
-        <v>118.0867686721583</v>
+        <v>118.0867686721587</v>
       </c>
       <c r="J8" t="n">
-        <v>259.9693115255455</v>
+        <v>259.9693115255464</v>
       </c>
       <c r="K8" t="n">
-        <v>389.6266078848596</v>
+        <v>389.626607884861</v>
       </c>
       <c r="L8" t="n">
-        <v>483.3662602225955</v>
+        <v>483.3662602225972</v>
       </c>
       <c r="M8" t="n">
-        <v>537.8380992051127</v>
+        <v>537.8380992051145</v>
       </c>
       <c r="N8" t="n">
-        <v>546.5408819426724</v>
+        <v>546.5408819426743</v>
       </c>
       <c r="O8" t="n">
-        <v>516.0830567436899</v>
+        <v>516.0830567436917</v>
       </c>
       <c r="P8" t="n">
-        <v>440.4649489272342</v>
+        <v>440.4649489272358</v>
       </c>
       <c r="Q8" t="n">
-        <v>330.7708330314643</v>
+        <v>330.7708330314655</v>
       </c>
       <c r="R8" t="n">
-        <v>192.4069251696378</v>
+        <v>192.4069251696385</v>
       </c>
       <c r="S8" t="n">
-        <v>69.79838508830314</v>
+        <v>69.79838508830339</v>
       </c>
       <c r="T8" t="n">
-        <v>13.40833486446722</v>
+        <v>13.40833486446727</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2450409569748434</v>
+        <v>0.2450409569748443</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.638855881465596</v>
+        <v>1.638855881465602</v>
       </c>
       <c r="H9" t="n">
-        <v>15.82789759204931</v>
+        <v>15.82789759204937</v>
       </c>
       <c r="I9" t="n">
-        <v>56.4255204802848</v>
+        <v>56.425520480285</v>
       </c>
       <c r="J9" t="n">
-        <v>154.8359409765369</v>
+        <v>154.8359409765375</v>
       </c>
       <c r="K9" t="n">
-        <v>264.6392850347319</v>
+        <v>264.6392850347328</v>
       </c>
       <c r="L9" t="n">
-        <v>355.8401772454138</v>
+        <v>355.8401772454151</v>
       </c>
       <c r="M9" t="n">
-        <v>415.2487029485416</v>
+        <v>415.2487029485431</v>
       </c>
       <c r="N9" t="n">
-        <v>426.2391005045105</v>
+        <v>426.2391005045121</v>
       </c>
       <c r="O9" t="n">
-        <v>389.9255043941412</v>
+        <v>389.9255043941426</v>
       </c>
       <c r="P9" t="n">
-        <v>312.949593716005</v>
+        <v>312.9495937160061</v>
       </c>
       <c r="Q9" t="n">
-        <v>209.1985156762049</v>
+        <v>209.1985156762057</v>
       </c>
       <c r="R9" t="n">
-        <v>101.7528239387149</v>
+        <v>101.7528239387152</v>
       </c>
       <c r="S9" t="n">
-        <v>30.44102920178419</v>
+        <v>30.4410292017843</v>
       </c>
       <c r="T9" t="n">
-        <v>6.605739276609134</v>
+        <v>6.605739276609158</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1078194658858945</v>
+        <v>0.1078194658858949</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.373961718283639</v>
+        <v>1.373961718283644</v>
       </c>
       <c r="H10" t="n">
-        <v>12.21576873164909</v>
+        <v>12.21576873164913</v>
       </c>
       <c r="I10" t="n">
-        <v>41.31877603711163</v>
+        <v>41.31877603711177</v>
       </c>
       <c r="J10" t="n">
-        <v>97.13909348265328</v>
+        <v>97.13909348265362</v>
       </c>
       <c r="K10" t="n">
-        <v>159.6293705424082</v>
+        <v>159.6293705424088</v>
       </c>
       <c r="L10" t="n">
-        <v>204.2706358255512</v>
+        <v>204.270635825552</v>
       </c>
       <c r="M10" t="n">
-        <v>215.3747446214981</v>
+        <v>215.3747446214988</v>
       </c>
       <c r="N10" t="n">
-        <v>210.2536145806228</v>
+        <v>210.2536145806236</v>
       </c>
       <c r="O10" t="n">
-        <v>194.2032435988548</v>
+        <v>194.2032435988555</v>
       </c>
       <c r="P10" t="n">
-        <v>166.1744245458684</v>
+        <v>166.174424545869</v>
       </c>
       <c r="Q10" t="n">
-        <v>115.0505580646418</v>
+        <v>115.0505580646422</v>
       </c>
       <c r="R10" t="n">
-        <v>61.77831507846252</v>
+        <v>61.77831507846274</v>
       </c>
       <c r="S10" t="n">
-        <v>23.94440558136123</v>
+        <v>23.94440558136131</v>
       </c>
       <c r="T10" t="n">
-        <v>5.870563705393729</v>
+        <v>5.87056370539375</v>
       </c>
       <c r="U10" t="n">
-        <v>0.07494336645183494</v>
+        <v>0.07494336645183521</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869147</v>
+        <v>4.833130601869141</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639242</v>
+        <v>49.49729877639235</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285605</v>
+        <v>186.3292675285602</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203919</v>
+        <v>410.2059184203914</v>
       </c>
       <c r="K11" t="n">
-        <v>614.792336797513</v>
+        <v>614.7923367975122</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544661</v>
+        <v>762.7042574544651</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954566</v>
+        <v>848.6554437954554</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180174</v>
+        <v>862.3875761180162</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956809</v>
+        <v>814.3281336956799</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620362</v>
+        <v>695.0102219620353</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825973</v>
+        <v>521.9237322825966</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696631</v>
+        <v>303.5991401696627</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495317</v>
+        <v>0.3866504481495312</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858571</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837094</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469216</v>
+        <v>89.03390294469204</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598383</v>
+        <v>417.5746757598378</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747752</v>
+        <v>156.4572543240596</v>
       </c>
       <c r="M12" t="n">
-        <v>382.5526639806284</v>
+        <v>655.2214742821475</v>
       </c>
       <c r="N12" t="n">
-        <v>672.563237034051</v>
+        <v>672.5632370340501</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924478</v>
+        <v>615.263965992447</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383448</v>
+        <v>493.8035753383442</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047542</v>
+        <v>330.0946129047538</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605173</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627656</v>
+        <v>48.0329399962765</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868434</v>
+        <v>10.42320468868432</v>
       </c>
       <c r="U12" t="n">
-        <v>0.17012847696438</v>
+        <v>0.1701284769643797</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535158</v>
+        <v>2.167976001535155</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092169</v>
+        <v>19.27527754092166</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798458</v>
+        <v>65.1969510279845</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085354</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329028</v>
+        <v>251.8793936329025</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100543</v>
+        <v>322.3189048100539</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770066</v>
+        <v>339.8400926770061</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531031</v>
+        <v>331.7594548531026</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806241</v>
+        <v>306.4335533806237</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493066</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194574</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811716</v>
+        <v>97.48008457811703</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493542</v>
+        <v>37.78190904493537</v>
       </c>
       <c r="T13" t="n">
-        <v>9.26317018837749</v>
+        <v>9.263170188377478</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473724</v>
+        <v>0.1182532364473722</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>301.6445156724565</v>
+        <v>539.0475940357379</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,22 +32321,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>489.3502824033309</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>671.9287955253226</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745949</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q27" t="n">
-        <v>290.1088399635148</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,10 +33257,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>100.2764607028593</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>216.8572963387063</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33269,7 +33269,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,28 +33494,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N33" t="n">
-        <v>679.7882761221643</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
@@ -33731,7 +33731,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,7 +33740,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>548.8125296967487</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33971,22 +33971,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>269.1634560719501</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>332.1692388321073</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
@@ -33995,7 +33995,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34211,7 +34211,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>161.7871425275301</v>
+        <v>360.3952288121454</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,13 +34442,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>303.4024373464759</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214699</v>
@@ -34702,22 +34702,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L2" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393761</v>
+        <v>590.6296837422569</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7577316459229</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P2" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q2" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7144734559834</v>
+        <v>483.7866553801332</v>
       </c>
       <c r="M3" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N3" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O3" t="n">
         <v>554.9858674269929</v>
@@ -34936,25 +34936,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>193.2720036766605</v>
+        <v>104.7649160426979</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451607</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>264.8511849196801</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>381.4911589188591</v>
       </c>
       <c r="Q6" t="n">
         <v>233.0438950105733</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>78.92340699885921</v>
+        <v>78.92340699886012</v>
       </c>
       <c r="K8" t="n">
-        <v>169.536756839879</v>
+        <v>493.6821694110452</v>
       </c>
       <c r="L8" t="n">
-        <v>658.7614942451607</v>
+        <v>247.59984525261</v>
       </c>
       <c r="M8" t="n">
-        <v>407.6212839464148</v>
+        <v>612.5613714025559</v>
       </c>
       <c r="N8" t="n">
-        <v>317.1278183460815</v>
+        <v>317.1278183460834</v>
       </c>
       <c r="O8" t="n">
-        <v>658.7614942451607</v>
+        <v>285.984845322005</v>
       </c>
       <c r="P8" t="n">
-        <v>209.2319531719646</v>
+        <v>209.2319531719662</v>
       </c>
       <c r="Q8" t="n">
-        <v>108.4651431570148</v>
+        <v>320.7801338169207</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>42.53780722848882</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>27.99831430987024</v>
+        <v>27.99831430987078</v>
       </c>
       <c r="K9" t="n">
-        <v>126.7978460603729</v>
+        <v>126.7978460603738</v>
       </c>
       <c r="L9" t="n">
-        <v>588.1261427689988</v>
+        <v>588.1261427690001</v>
       </c>
       <c r="M9" t="n">
-        <v>273.1146690265233</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="N9" t="n">
-        <v>521.9569887749499</v>
+        <v>294.8973884211788</v>
       </c>
       <c r="O9" t="n">
-        <v>247.3292599496968</v>
+        <v>617.2820914606111</v>
       </c>
       <c r="P9" t="n">
-        <v>497.437954941612</v>
+        <v>178.9751863016759</v>
       </c>
       <c r="Q9" t="n">
-        <v>279.2940293260325</v>
+        <v>69.21674159018414</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.779913365980505</v>
+        <v>3.779913365980846</v>
       </c>
       <c r="K10" t="n">
-        <v>137.3598787165253</v>
+        <v>137.3598787165259</v>
       </c>
       <c r="L10" t="n">
-        <v>231.8606610858674</v>
+        <v>231.8606610858681</v>
       </c>
       <c r="M10" t="n">
-        <v>254.9586215833386</v>
+        <v>254.9586215833394</v>
       </c>
       <c r="N10" t="n">
-        <v>254.3857869598514</v>
+        <v>254.3857869598522</v>
       </c>
       <c r="O10" t="n">
-        <v>218.7883715128945</v>
+        <v>218.7883715128952</v>
       </c>
       <c r="P10" t="n">
-        <v>163.4529838107619</v>
+        <v>163.4529838107625</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.88851481294743</v>
+        <v>28.88851481294785</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937056</v>
+        <v>229.1600138937051</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525325</v>
+        <v>394.7024857525317</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844788</v>
+        <v>526.9378424844779</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681839</v>
+        <v>618.3092105681827</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214265</v>
+        <v>632.9745125214254</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739941</v>
+        <v>584.2299222739931</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067667</v>
+        <v>463.7772262067658</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081477</v>
+        <v>299.6180424081471</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553096</v>
+        <v>88.01360235553057</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854793</v>
+        <v>279.7332367854788</v>
       </c>
       <c r="L12" t="n">
-        <v>422.926303694901</v>
+        <v>17.90287454418544</v>
       </c>
       <c r="M12" t="n">
-        <v>240.4186300586101</v>
+        <v>513.0874403601292</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507177</v>
+        <v>541.2215249507168</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480033</v>
+        <v>472.6677215480025</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240146</v>
+        <v>359.829167924014</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187327</v>
+        <v>190.1128388187323</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655336</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186287</v>
+        <v>59.91672319186267</v>
       </c>
       <c r="K13" t="n">
-        <v>229.60990180702</v>
+        <v>229.6099018070196</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703705</v>
+        <v>349.90893007037</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388472</v>
+        <v>379.4239696388467</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323316</v>
+        <v>375.8916272323312</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946637</v>
+        <v>331.0186812946633</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142001</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776326</v>
+        <v>95.37638356776303</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>159.048271228012</v>
+        <v>396.4513495912935</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,22 +35969,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>529.7947616033043</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066298</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>235.5010321525766</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q27" t="n">
-        <v>150.1270658774933</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36838,13 +36838,13 @@
         <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7540807028593151</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967203961</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36926,10 +36926,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789214</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N33" t="n">
-        <v>548.4465640388311</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,13 +37400,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>414.8381222824185</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37619,22 +37619,22 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499318</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>189.5729943876629</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>23.94570355317105</v>
+        <v>222.5537898377865</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>165.560998372117</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071396</v>
